--- a/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
+++ b/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="9-2-14" sheetId="1" r:id="rId1"/>
     <sheet name="9-3-14" sheetId="2" r:id="rId2"/>
+    <sheet name="9-3-14 Trial 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>Trial #</t>
   </si>
@@ -64,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +73,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -138,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -158,14 +172,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -458,10 +483,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -469,8 +494,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -567,10 +592,10 @@
       <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -578,8 +603,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,10 +696,10 @@
       <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -682,8 +707,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
@@ -791,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,10 +830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -816,8 +841,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -878,33 +903,33 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <f>(B3+B4+B5+B6+B7)/5</f>
         <v>0.20200000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <f>(C3+C5+C4+C6+C7)/5</f>
         <v>0.19897999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <f>(C8-B8)/B8*100</f>
         <v>-1.4950495049505061</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -912,8 +937,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -974,33 +999,33 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="9">
         <f>(B17+B18+B19+B20+B21)/5</f>
         <v>4.9860000000000002E-2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <f>(C17+C18+C20+C19+C21)/5</f>
         <v>5.1519999999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="9">
         <f>(C22-B22)/B22*100</f>
         <v>3.3293221018852681</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1008,8 +1033,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1070,26 +1095,29 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="10">
         <f>(B27+B28+B29+B30+B31)/5</f>
         <v>1.9860000000000003E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="10">
         <f>(C27+C28+C29+C30+C31)/5</f>
         <v>1.9560000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="9">
         <f>(C32-B32)/B32*100</f>
         <v>-1.5105740181268963</v>
       </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1103,4 +1131,243 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>0.1943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>0.1961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>(C3+C5+C4+C6+C7)/5</f>
+        <v>0.19483999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f>(C13+C14+C16+C15+C17)/5</f>
+        <v>5.4280000000000009E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <f>(C26+C27+C29+C28+C30)/5</f>
+        <v>2.0080000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
+++ b/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
@@ -175,17 +175,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +483,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -494,8 +494,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -592,10 +592,10 @@
       <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -603,8 +603,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -657,8 +657,12 @@
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.4699999999999999E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -696,10 +700,10 @@
       <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -707,8 +711,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
@@ -818,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="A15:C23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,10 +834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -841,8 +845,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -903,33 +907,33 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f>(B3+B4+B5+B6+B7)/5</f>
         <v>0.20200000000000001</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f>(C3+C5+C4+C6+C7)/5</f>
         <v>0.19897999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <f>(C8-B8)/B8*100</f>
         <v>-1.4950495049505061</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -937,8 +941,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -999,33 +1003,33 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <f>(B17+B18+B19+B20+B21)/5</f>
         <v>4.9860000000000002E-2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <f>(C17+C18+C20+C19+C21)/5</f>
         <v>5.1519999999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <f>(C22-B22)/B22*100</f>
         <v>3.3293221018852681</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1033,8 +1037,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1095,29 +1099,29 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <f>(B27+B28+B29+B30+B31)/5</f>
         <v>1.9860000000000003E-2</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <f>(C27+C28+C29+C30+C31)/5</f>
         <v>1.9560000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <f>(C32-B32)/B32*100</f>
         <v>-1.5105740181268963</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="9"/>
+      <c r="F38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1137,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1148,17 +1152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1219,17 +1223,17 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1290,17 +1294,17 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>

--- a/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
+++ b/Reliability Mesurements 1 mL Syringe Excel 1-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="9-2-14" sheetId="1" r:id="rId1"/>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C31" sqref="A25:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
